--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhdang2803/Desktop/chat_search/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Software-Testing-Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6892A947-379F-3C4E-8F45-FB7DEF4E9F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C969CD87-8F73-4C87-AE28-C46F26818E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{E8E41557-7490-2D47-9C80-55869AB57B51}"/>
+    <workbookView xWindow="6255" yWindow="210" windowWidth="18915" windowHeight="14520" activeTab="1" xr2:uid="{E8E41557-7490-2D47-9C80-55869AB57B51}"/>
   </bookViews>
   <sheets>
     <sheet name="search_chat" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>no</t>
   </si>
@@ -60,6 +50,9 @@
   </si>
   <si>
     <t>102tech</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -123,7 +116,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -411,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,13 +414,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FB1C0F-F38D-9B43-A10B-4AF6C3CAC991}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
+    <sheetView zoomScale="207" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -443,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -451,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -459,7 +452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -467,7 +460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -475,7 +468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -483,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -491,7 +484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -499,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -514,76 +507,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D5BA9C-B2E1-B646-9067-DEA169957258}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
